--- a/1.xlsx
+++ b/1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="27792" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -155,10 +150,10 @@
     <t>-</t>
   </si>
   <si>
-    <t>qu (ksc.)</t>
-  </si>
-  <si>
-    <t>Su(ksc.)</t>
+    <t>Su (t/sq.m.)</t>
+  </si>
+  <si>
+    <t>Su from Ncor</t>
   </si>
 </sst>
 </file>
@@ -388,8 +383,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_sum-kac" xfId="2"/>
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
     <cellStyle name="ปกติ_42xx-4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -406,7 +401,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ชุดรูปแบบของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -448,7 +443,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -483,7 +478,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -695,10 +690,10 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:N83"/>
+      <selection sqref="A1:N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1"/>
@@ -742,7 +737,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="28.8">
+    <row r="3" spans="1:15" ht="30">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -860,7 +855,7 @@
         <v>0.46</v>
       </c>
       <c r="M5" s="18">
-        <f t="shared" ref="M5:M59" si="0">L5/2</f>
+        <f t="shared" ref="M5:M18" si="0">L5/2</f>
         <v>0.23</v>
       </c>
       <c r="N5" s="13"/>
@@ -2532,7 +2527,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2544,7 +2539,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1.xlsx
+++ b/1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>Depth, m</t>
   </si>
@@ -690,7 +690,7 @@
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:N3"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -914,9 +914,7 @@
       <c r="K7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="L7" s="10"/>
       <c r="M7" s="18"/>
       <c r="N7" s="13"/>
       <c r="O7" s="14"/>
@@ -1182,9 +1180,7 @@
       <c r="K15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="L15" s="10"/>
       <c r="M15" s="18"/>
       <c r="N15" s="13">
         <v>42</v>
@@ -1221,9 +1217,7 @@
       <c r="K16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="L16" s="10"/>
       <c r="M16" s="18"/>
       <c r="N16" s="13">
         <v>15</v>
@@ -1352,9 +1346,7 @@
       <c r="K19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="L19" s="10"/>
       <c r="M19" s="18"/>
       <c r="N19" s="13">
         <v>70</v>
@@ -1395,9 +1387,7 @@
       <c r="K20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="L20" s="10"/>
       <c r="M20" s="18"/>
       <c r="N20" s="13">
         <v>74</v>
@@ -1438,9 +1428,7 @@
       <c r="K21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="L21" s="10"/>
       <c r="M21" s="18"/>
       <c r="N21" s="13">
         <v>55</v>
@@ -1481,9 +1469,7 @@
       <c r="K22" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="L22" s="10"/>
       <c r="M22" s="18"/>
       <c r="N22" s="13">
         <v>58</v>
@@ -1520,9 +1506,7 @@
       <c r="K23" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="L23" s="10"/>
       <c r="M23" s="18"/>
       <c r="N23" s="13">
         <v>62</v>
